--- a/projects/atm/database.xlsx
+++ b/projects/atm/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba6543add0551eeb/Desktop/code-storage/projects/atm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{0DC21D2D-6BFE-4CC5-B70A-572B1AB3436E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04E20E5A-0601-4451-A3C9-F9D32E618582}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{0DC21D2D-6BFE-4CC5-B70A-572B1AB3436E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9F53FE9-5FFF-4ACE-A386-870D6B18C17E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="924" windowWidth="17280" windowHeight="9420" xr2:uid="{EA3283C8-26D9-40B0-978A-231E43DEE8BE}"/>
+    <workbookView xWindow="11220" yWindow="3345" windowWidth="17250" windowHeight="9405" xr2:uid="{EA3283C8-26D9-40B0-978A-231E43DEE8BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,39 +35,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>sfasdf</t>
-  </si>
-  <si>
-    <t>asdf</t>
-  </si>
-  <si>
-    <t>asdfa</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>accounts</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>surname</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>balance</t>
-  </si>
-  <si>
-    <t>history</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Testpw</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Person2</t>
+  </si>
+  <si>
+    <t>Testpw2</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -419,60 +407,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D978F8-ADFD-478F-96BF-DBE097716679}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11111111</v>
+      </c>
+      <c r="B2">
+        <v>22222222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1000</v>
+      </c>
+      <c r="B6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
+      <c r="B7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
